--- a/2020/February/All Details/06.02.2020/MC Bank Statement Feb'2020.xlsx
+++ b/2020/February/All Details/06.02.2020/MC Bank Statement Feb'2020.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\February\All Details\06.02.2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0547A-DACD-4C7C-B3CB-FFA79E51B640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="7" r:id="rId1"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -142,9 +136,6 @@
     <t>02.02.2020</t>
   </si>
   <si>
-    <t>Hand</t>
-  </si>
-  <si>
     <t>03.02.2020</t>
   </si>
   <si>
@@ -159,11 +150,14 @@
   <si>
     <t>Date: 06.02.2020</t>
   </si>
+  <si>
+    <t>Jafor+Hand</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1532,12 +1526,12 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Comma 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Comma 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 4" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 2" xfId="28"/>
+    <cellStyle name="Comma 2 2" xfId="29"/>
+    <cellStyle name="Comma 2 3" xfId="30"/>
+    <cellStyle name="Comma 3" xfId="31"/>
+    <cellStyle name="Comma 4" xfId="32"/>
+    <cellStyle name="Comma 5" xfId="33"/>
     <cellStyle name="Explanatory Text" xfId="34" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="35" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="36" builtinId="16" customBuiltin="1"/>
@@ -1548,15 +1542,15 @@
     <cellStyle name="Linked Cell" xfId="41" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="42" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 16" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 18" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Note 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 16" xfId="43"/>
+    <cellStyle name="Normal 18" xfId="44"/>
+    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="Normal 3" xfId="46"/>
+    <cellStyle name="Normal 4" xfId="47"/>
+    <cellStyle name="Note 2" xfId="48"/>
     <cellStyle name="Output" xfId="49" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Percent 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Percent 2" xfId="50"/>
+    <cellStyle name="Percent 3" xfId="51"/>
     <cellStyle name="Title" xfId="52" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="53" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="54" builtinId="11" customBuiltin="1"/>
@@ -1594,7 +1588,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1600,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1629,14 +1623,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1696,7 +1690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1728,27 +1722,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1780,24 +1756,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1973,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2102,7 +2060,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="60"/>
       <c r="B9" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="64">
         <v>400000</v>
@@ -2121,7 +2079,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="60"/>
       <c r="B10" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="68">
         <v>320000</v>
@@ -2140,7 +2098,7 @@
     <row r="11" spans="1:9">
       <c r="A11" s="60"/>
       <c r="B11" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="64">
         <v>300000</v>
@@ -2159,7 +2117,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="60"/>
       <c r="B12" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="64">
         <v>320000</v>
@@ -2178,7 +2136,7 @@
     <row r="13" spans="1:9">
       <c r="A13" s="60"/>
       <c r="B13" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="64">
         <v>50000</v>
@@ -3064,14 +3022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3107,7 +3065,7 @@
     </row>
     <row r="2" spans="1:37" ht="21.75" customHeight="1">
       <c r="A2" s="143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="144"/>
       <c r="C2" s="144"/>
@@ -3288,10 +3246,10 @@
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="103" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E6" s="107">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="99"/>
@@ -3336,7 +3294,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>0</v>
+        <v>1817725</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="99"/>
@@ -3430,7 +3388,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="106">
-        <v>0</v>
+        <v>-81125.389999999665</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="99"/>
@@ -3601,12 +3559,12 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>5081409.0999999996</v>
+        <v>7038008.71</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="88">
         <f>B13-E13</f>
-        <v>1956599.6100000003</v>
+        <v>0</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="15"/>
@@ -3865,7 +3823,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="87">
-        <v>89180</v>
+        <v>104635</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="35" t="s">
